--- a/Шаблоны/Common.xlsx
+++ b/Шаблоны/Common.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\СерафимПилипчук\Desktop\Шаблоны\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\АнтонВильсон\Desktop\Work\InThemJira\UI5\Inthem\Шаблоны\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65601FA8-347A-4399-94A0-8930D48FEB98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63471D3-F4C3-4C5A-BA93-C8B7EED65CD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC059209-ECB8-427F-A304-991532345527}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DC059209-ECB8-427F-A304-991532345527}"/>
   </bookViews>
   <sheets>
     <sheet name="Общие" sheetId="1" r:id="rId1"/>
     <sheet name="Филиалы" sheetId="2" r:id="rId2"/>
     <sheet name="Должности" sheetId="4" r:id="rId3"/>
-    <sheet name="Выплатызачас" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,38 +36,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="84">
   <si>
     <t>Выплата за час</t>
   </si>
   <si>
-    <t>Выплата за час ID</t>
-  </si>
-  <si>
     <t>Ключ</t>
   </si>
   <si>
     <t>Наименование</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>we</t>
-  </si>
-  <si>
-    <t>Садовник</t>
-  </si>
-  <si>
-    <t>Anton</t>
-  </si>
-  <si>
-    <t>Kukuevo_street</t>
-  </si>
-  <si>
-    <t>розовый такой</t>
-  </si>
-  <si>
     <t>Филиал</t>
   </si>
   <si>
@@ -81,29 +59,242 @@
     <t>Должность ID</t>
   </si>
   <si>
-    <t>Выплата1</t>
-  </si>
-  <si>
-    <t>Выплата2</t>
-  </si>
-  <si>
-    <t>Выплата3</t>
-  </si>
-  <si>
-    <t>Выплата4</t>
-  </si>
-  <si>
-    <t>Выплата5</t>
+    <t>Отдел разработки ПО Москва</t>
+  </si>
+  <si>
+    <t>Москва</t>
+  </si>
+  <si>
+    <t>Административный отдел</t>
+  </si>
+  <si>
+    <t>Чебоксары</t>
+  </si>
+  <si>
+    <t>Уволенные</t>
+  </si>
+  <si>
+    <t>Отдел бизнес-технологий Москва</t>
+  </si>
+  <si>
+    <t>Разработка</t>
+  </si>
+  <si>
+    <t>Отдел бизнес-технологий Чебоксары</t>
+  </si>
+  <si>
+    <t>Тимлиды</t>
+  </si>
+  <si>
+    <t>Проектный офис</t>
+  </si>
+  <si>
+    <t>1-я линия поддержки</t>
+  </si>
+  <si>
+    <t>Отдел разработки ПО Чебоксары</t>
+  </si>
+  <si>
+    <t>Функционал</t>
+  </si>
+  <si>
+    <t>Разработчик К1.0</t>
+  </si>
+  <si>
+    <t>Разработчик К1.2</t>
+  </si>
+  <si>
+    <t>Консультант САП К0</t>
+  </si>
+  <si>
+    <t>Консультант САП К1.2</t>
+  </si>
+  <si>
+    <t>Консультант САП К1.1</t>
+  </si>
+  <si>
+    <t>Консультант поддержки К3</t>
+  </si>
+  <si>
+    <t>Консультант САП К1.3</t>
+  </si>
+  <si>
+    <t>Старший консультант поддержки К4.1</t>
+  </si>
+  <si>
+    <t>Разработчик К1.3</t>
+  </si>
+  <si>
+    <t>Помощник генерального директора</t>
+  </si>
+  <si>
+    <t>Специалист по поддержке пользователей</t>
+  </si>
+  <si>
+    <t>Руководитель отдела административного сопровождения</t>
+  </si>
+  <si>
+    <t>Генеральный директор</t>
+  </si>
+  <si>
+    <t>Руководитель проектов</t>
+  </si>
+  <si>
+    <t>Руководитель регионального направления</t>
+  </si>
+  <si>
+    <t>Стажер САП</t>
+  </si>
+  <si>
+    <t>Разработчик К1.1</t>
+  </si>
+  <si>
+    <t>Консультант САП К2.1</t>
+  </si>
+  <si>
+    <t>Старший консультант поддержки К4.0</t>
+  </si>
+  <si>
+    <t>Администратор проектов</t>
+  </si>
+  <si>
+    <t>Разработчик К0</t>
+  </si>
+  <si>
+    <t>Специалист отдела административного сопровождения</t>
+  </si>
+  <si>
+    <t>Консультант САП К2.2</t>
+  </si>
+  <si>
+    <t>0000000000000000000</t>
+  </si>
+  <si>
+    <t>ВСЕ ФИЛИАЛЫ</t>
+  </si>
+  <si>
+    <t>3280976969174631070</t>
+  </si>
+  <si>
+    <t>3300633909773353401</t>
+  </si>
+  <si>
+    <t>3412568214982380681</t>
+  </si>
+  <si>
+    <t>3763699611210895198</t>
+  </si>
+  <si>
+    <t>4152268035651813438</t>
+  </si>
+  <si>
+    <t>420827908486874135</t>
+  </si>
+  <si>
+    <t>4804435888992895598</t>
+  </si>
+  <si>
+    <t>5008112461077564808</t>
+  </si>
+  <si>
+    <t>5423171967050336704</t>
+  </si>
+  <si>
+    <t>76196642765488550</t>
+  </si>
+  <si>
+    <t>7627234644884079073</t>
+  </si>
+  <si>
+    <t>7659965892159032908</t>
+  </si>
+  <si>
+    <t>9003442444164417689</t>
+  </si>
+  <si>
+    <t>ВСЕ ДОЛЖНОСТИ</t>
+  </si>
+  <si>
+    <t>1203158023849787823</t>
+  </si>
+  <si>
+    <t>132004129837435667</t>
+  </si>
+  <si>
+    <t>138506210923464808</t>
+  </si>
+  <si>
+    <t>232082407950075194</t>
+  </si>
+  <si>
+    <t>3019009437465791026</t>
+  </si>
+  <si>
+    <t>3528514839244918242</t>
+  </si>
+  <si>
+    <t>4539351627309730282</t>
+  </si>
+  <si>
+    <t>4738932126688956006</t>
+  </si>
+  <si>
+    <t>5439747125332168693</t>
+  </si>
+  <si>
+    <t>5579769468551515989</t>
+  </si>
+  <si>
+    <t>5591056472699587050</t>
+  </si>
+  <si>
+    <t>6228209980103737691</t>
+  </si>
+  <si>
+    <t>6282452670265183627</t>
+  </si>
+  <si>
+    <t>6486613692234809788</t>
+  </si>
+  <si>
+    <t>6791707149787480605</t>
+  </si>
+  <si>
+    <t>7079509283661761297</t>
+  </si>
+  <si>
+    <t>760474406833441057</t>
+  </si>
+  <si>
+    <t>8119705032577665983</t>
+  </si>
+  <si>
+    <t>8267803578138969233</t>
+  </si>
+  <si>
+    <t>8380737848045685617</t>
+  </si>
+  <si>
+    <t>8610346778526564396</t>
+  </si>
+  <si>
+    <t>964021310157572725</t>
+  </si>
+  <si>
+    <t>4654862100934570000</t>
+  </si>
+  <si>
+    <t>Дата от</t>
+  </si>
+  <si>
+    <t>Дата до</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0000"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,13 +307,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -170,23 +354,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -501,81 +700,661 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492D6E77-25C4-49F3-AFCE-8FF698FCE16A}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="31.5546875" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.5546875" customWidth="1"/>
+    <col min="4" max="4" width="32" style="4" customWidth="1"/>
+    <col min="5" max="5" width="22" style="12" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="str">
+      <c r="B2" s="4" t="str">
         <f>INDEX(Филиалы!$A$2:$B$300,MATCH($A2,Филиалы!$B$2:$B$300,0),1)</f>
-        <v>розовый такой</v>
+        <v>420827908486874135</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="str">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4" t="str">
         <f>INDEX(Должности!$A$2:$D$300,MATCH($C2,Должности!$B$2:$B$300,0),1)</f>
-        <v>Anton</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2">
-        <f>INDEX(Выплатызачас!$A$2:$D$300,MATCH($E2,Выплатызачас!$B$2:$B$300,0),1)</f>
-        <v>515</v>
-      </c>
+        <v>138506210923464808</v>
+      </c>
+      <c r="E2" s="11">
+        <v>43831</v>
+      </c>
+      <c r="F2" s="12">
+        <v>44561</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="str">
+        <f>INDEX(Филиалы!$A$2:$B$300,MATCH($A3,Филиалы!$B$2:$B$300,0),1)</f>
+        <v>420827908486874135</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4" t="str">
+        <f>INDEX(Должности!$A$2:$D$300,MATCH($C3,Должности!$B$2:$B$300,0),1)</f>
+        <v>3019009437465791026</v>
+      </c>
+      <c r="E3" s="11">
+        <v>43831</v>
+      </c>
+      <c r="F3" s="12">
+        <v>44561</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="str">
+        <f>INDEX(Филиалы!$A$2:$B$300,MATCH($A4,Филиалы!$B$2:$B$300,0),1)</f>
+        <v>420827908486874135</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="4" t="str">
+        <f>INDEX(Должности!$A$2:$D$300,MATCH($C4,Должности!$B$2:$B$300,0),1)</f>
+        <v>232082407950075194</v>
+      </c>
+      <c r="E4" s="11">
+        <v>43831</v>
+      </c>
+      <c r="F4" s="12">
+        <v>44561</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="str">
+        <f>INDEX(Филиалы!$A$2:$B$300,MATCH($A5,Филиалы!$B$2:$B$300,0),1)</f>
+        <v>420827908486874135</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="4" t="str">
+        <f>INDEX(Должности!$A$2:$D$300,MATCH($C5,Должности!$B$2:$B$300,0),1)</f>
+        <v>4539351627309730282</v>
+      </c>
+      <c r="E5" s="11">
+        <v>43831</v>
+      </c>
+      <c r="F5" s="12">
+        <v>44561</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="str">
+        <f>INDEX(Филиалы!$A$2:$B$300,MATCH($A6,Филиалы!$B$2:$B$300,0),1)</f>
+        <v>420827908486874135</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <f>INDEX(Должности!$A$2:$D$300,MATCH($C6,Должности!$B$2:$B$300,0),1)</f>
+        <v>760474406833441057</v>
+      </c>
+      <c r="E6" s="11">
+        <v>43831</v>
+      </c>
+      <c r="F6" s="12">
+        <v>44561</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="str">
+        <f>INDEX(Филиалы!$A$2:$B$300,MATCH($A7,Филиалы!$B$2:$B$300,0),1)</f>
+        <v>420827908486874135</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="4" t="str">
+        <f>INDEX(Должности!$A$2:$D$300,MATCH($C7,Должности!$B$2:$B$300,0),1)</f>
+        <v>964021310157572725</v>
+      </c>
+      <c r="E7" s="11">
+        <v>43831</v>
+      </c>
+      <c r="F7" s="12">
+        <v>44561</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4" t="str">
+        <f>INDEX(Филиалы!$A$2:$B$300,MATCH($A8,Филиалы!$B$2:$B$300,0),1)</f>
+        <v>420827908486874135</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="4" t="str">
+        <f>INDEX(Должности!$A$2:$D$300,MATCH($C8,Должности!$B$2:$B$300,0),1)</f>
+        <v>3528514839244918242</v>
+      </c>
+      <c r="E8" s="11">
+        <v>43831</v>
+      </c>
+      <c r="F8" s="12">
+        <v>44561</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="str">
+        <f>INDEX(Филиалы!$A$2:$B$300,MATCH($A9,Филиалы!$B$2:$B$300,0),1)</f>
+        <v>420827908486874135</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="4" t="str">
+        <f>INDEX(Должности!$A$2:$D$300,MATCH($C9,Должности!$B$2:$B$300,0),1)</f>
+        <v>8119705032577665983</v>
+      </c>
+      <c r="E9" s="11">
+        <v>43831</v>
+      </c>
+      <c r="F9" s="12">
+        <v>44561</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4" t="str">
+        <f>INDEX(Филиалы!$A$2:$B$300,MATCH($A10,Филиалы!$B$2:$B$300,0),1)</f>
+        <v>420827908486874135</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="4" t="str">
+        <f>INDEX(Должности!$A$2:$D$300,MATCH($C10,Должности!$B$2:$B$300,0),1)</f>
+        <v>4654862100934570000</v>
+      </c>
+      <c r="E10" s="11">
+        <v>43831</v>
+      </c>
+      <c r="F10" s="12">
+        <v>44561</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4" t="str">
+        <f>INDEX(Филиалы!$A$2:$B$300,MATCH($A11,Филиалы!$B$2:$B$300,0),1)</f>
+        <v>5008112461077564808</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="4" t="str">
+        <f>INDEX(Должности!$A$2:$D$300,MATCH($C11,Должности!$B$2:$B$300,0),1)</f>
+        <v>138506210923464808</v>
+      </c>
+      <c r="E11" s="11">
+        <v>43831</v>
+      </c>
+      <c r="F11" s="12">
+        <v>44561</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>INDEX(Филиалы!$A$2:$B$300,MATCH($A12,Филиалы!$B$2:$B$300,0),1)</f>
+        <v>5008112461077564808</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="4" t="str">
+        <f>INDEX(Должности!$A$2:$D$300,MATCH($C12,Должности!$B$2:$B$300,0),1)</f>
+        <v>3019009437465791026</v>
+      </c>
+      <c r="E12" s="11">
+        <v>43831</v>
+      </c>
+      <c r="F12" s="12">
+        <v>44561</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="4" t="str">
+        <f>INDEX(Филиалы!$A$2:$B$300,MATCH($A13,Филиалы!$B$2:$B$300,0),1)</f>
+        <v>5008112461077564808</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="4" t="str">
+        <f>INDEX(Должности!$A$2:$D$300,MATCH($C13,Должности!$B$2:$B$300,0),1)</f>
+        <v>232082407950075194</v>
+      </c>
+      <c r="E13" s="11">
+        <v>43831</v>
+      </c>
+      <c r="F13" s="12">
+        <v>44561</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4" t="str">
+        <f>INDEX(Филиалы!$A$2:$B$300,MATCH($A14,Филиалы!$B$2:$B$300,0),1)</f>
+        <v>5008112461077564808</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="4" t="str">
+        <f>INDEX(Должности!$A$2:$D$300,MATCH($C14,Должности!$B$2:$B$300,0),1)</f>
+        <v>4539351627309730282</v>
+      </c>
+      <c r="E14" s="11">
+        <v>43831</v>
+      </c>
+      <c r="F14" s="12">
+        <v>44561</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="str">
+        <f>INDEX(Филиалы!$A$2:$B$300,MATCH($A15,Филиалы!$B$2:$B$300,0),1)</f>
+        <v>5008112461077564808</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="4" t="str">
+        <f>INDEX(Должности!$A$2:$D$300,MATCH($C15,Должности!$B$2:$B$300,0),1)</f>
+        <v>760474406833441057</v>
+      </c>
+      <c r="E15" s="11">
+        <v>43831</v>
+      </c>
+      <c r="F15" s="12">
+        <v>44561</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="str">
+        <f>INDEX(Филиалы!$A$2:$B$300,MATCH($A16,Филиалы!$B$2:$B$300,0),1)</f>
+        <v>5008112461077564808</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="4" t="str">
+        <f>INDEX(Должности!$A$2:$D$300,MATCH($C16,Должности!$B$2:$B$300,0),1)</f>
+        <v>964021310157572725</v>
+      </c>
+      <c r="E16" s="11">
+        <v>43831</v>
+      </c>
+      <c r="F16" s="12">
+        <v>44561</v>
+      </c>
+      <c r="G16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4" t="str">
+        <f>INDEX(Филиалы!$A$2:$B$300,MATCH($A17,Филиалы!$B$2:$B$300,0),1)</f>
+        <v>5008112461077564808</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="4" t="str">
+        <f>INDEX(Должности!$A$2:$D$300,MATCH($C17,Должности!$B$2:$B$300,0),1)</f>
+        <v>5579769468551515989</v>
+      </c>
+      <c r="E17" s="11">
+        <v>43831</v>
+      </c>
+      <c r="F17" s="12">
+        <v>44561</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="4" t="str">
+        <f>INDEX(Филиалы!$A$2:$B$300,MATCH($A18,Филиалы!$B$2:$B$300,0),1)</f>
+        <v>3280976969174631070</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="4" t="str">
+        <f>INDEX(Должности!$A$2:$D$300,MATCH($C18,Должности!$B$2:$B$300,0),1)</f>
+        <v>8380737848045685617</v>
+      </c>
+      <c r="E18" s="11">
+        <v>43831</v>
+      </c>
+      <c r="F18" s="12">
+        <v>44561</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="4" t="str">
+        <f>INDEX(Филиалы!$A$2:$B$300,MATCH($A19,Филиалы!$B$2:$B$300,0),1)</f>
+        <v>3280976969174631070</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="4" t="str">
+        <f>INDEX(Должности!$A$2:$D$300,MATCH($C19,Должности!$B$2:$B$300,0),1)</f>
+        <v>1203158023849787823</v>
+      </c>
+      <c r="E19" s="11">
+        <v>43831</v>
+      </c>
+      <c r="F19" s="12">
+        <v>44561</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="4" t="str">
+        <f>INDEX(Филиалы!$A$2:$B$300,MATCH($A20,Филиалы!$B$2:$B$300,0),1)</f>
+        <v>3280976969174631070</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="4" t="str">
+        <f>INDEX(Должности!$A$2:$D$300,MATCH($C20,Должности!$B$2:$B$300,0),1)</f>
+        <v>7079509283661761297</v>
+      </c>
+      <c r="E20" s="11">
+        <v>43831</v>
+      </c>
+      <c r="F20" s="12">
+        <v>44561</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="4" t="str">
+        <f>INDEX(Филиалы!$A$2:$B$300,MATCH($A21,Филиалы!$B$2:$B$300,0),1)</f>
+        <v>3280976969174631070</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="4" t="str">
+        <f>INDEX(Должности!$A$2:$D$300,MATCH($C21,Должности!$B$2:$B$300,0),1)</f>
+        <v>132004129837435667</v>
+      </c>
+      <c r="E21" s="11">
+        <v>43831</v>
+      </c>
+      <c r="F21" s="12">
+        <v>44561</v>
+      </c>
+      <c r="G21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="4" t="str">
+        <f>INDEX(Филиалы!$A$2:$B$300,MATCH($A22,Филиалы!$B$2:$B$300,0),1)</f>
+        <v>3280976969174631070</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="4" t="str">
+        <f>INDEX(Должности!$A$2:$D$300,MATCH($C22,Должности!$B$2:$B$300,0),1)</f>
+        <v>4738932126688956006</v>
+      </c>
+      <c r="E22" s="11">
+        <v>43831</v>
+      </c>
+      <c r="F22" s="12">
+        <v>44561</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="4" t="str">
+        <f>INDEX(Филиалы!$A$2:$B$300,MATCH($A23,Филиалы!$B$2:$B$300,0),1)</f>
+        <v>7659965892159032908</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="4" t="str">
+        <f>INDEX(Должности!$A$2:$D$300,MATCH($C23,Должности!$B$2:$B$300,0),1)</f>
+        <v>6791707149787480605</v>
+      </c>
+      <c r="E23" s="11">
+        <v>43831</v>
+      </c>
+      <c r="F23" s="12">
+        <v>44561</v>
+      </c>
+      <c r="G23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="4" t="str">
+        <f>INDEX(Филиалы!$A$2:$B$300,MATCH($A24,Филиалы!$B$2:$B$300,0),1)</f>
+        <v>7659965892159032908</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="4" t="str">
+        <f>INDEX(Должности!$A$2:$D$300,MATCH($C24,Должности!$B$2:$B$300,0),1)</f>
+        <v>3019009437465791026</v>
+      </c>
+      <c r="E24" s="11">
+        <v>43831</v>
+      </c>
+      <c r="F24" s="12">
+        <v>44561</v>
+      </c>
+      <c r="G24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="4" t="str">
+        <f>INDEX(Филиалы!$A$2:$B$300,MATCH($A25,Филиалы!$B$2:$B$300,0),1)</f>
+        <v>7659965892159032908</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="4" t="str">
+        <f>INDEX(Должности!$A$2:$D$300,MATCH($C25,Должности!$B$2:$B$300,0),1)</f>
+        <v>232082407950075194</v>
+      </c>
+      <c r="E25" s="11">
+        <v>43831</v>
+      </c>
+      <c r="F25" s="12">
+        <v>44561</v>
+      </c>
+      <c r="G25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E26" s="11"/>
+      <c r="F26" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{986507AF-3A1D-4D16-843D-3CC051111C25}">
           <x14:formula1>
             <xm:f>Филиалы!$B$2:$B$401</xm:f>
           </x14:formula1>
           <xm:sqref>A2:A1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{74452D88-15BF-4A2C-8E73-20389C2DA8AE}">
-          <x14:formula1>
-            <xm:f>Выплатызачас!$B$2:$B$130</xm:f>
-          </x14:formula1>
-          <xm:sqref>E2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{58866883-A408-4F87-9C37-8FA1C5CF87F5}">
           <x14:formula1>
@@ -591,154 +1370,359 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A50B49F-F482-41E5-B0C1-4853B4E200CF}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44003B6-E382-4424-A73C-624ABB379886}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.140625" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="1" max="1" width="36.109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C586C359-DA53-40D7-8C12-6FE1F272E130}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>513</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>514</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>515</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>516</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>517</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Шаблоны/Common.xlsx
+++ b/Шаблоны/Common.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\АнтонВильсон\Desktop\Work\InThemJira\UI5\Inthem\Шаблоны\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63471D3-F4C3-4C5A-BA93-C8B7EED65CD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EF17C0-029B-4C50-BFBD-7359587F59C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DC059209-ECB8-427F-A304-991532345527}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC059209-ECB8-427F-A304-991532345527}"/>
   </bookViews>
   <sheets>
     <sheet name="Общие" sheetId="1" r:id="rId1"/>
@@ -281,13 +281,13 @@
     <t>964021310157572725</t>
   </si>
   <si>
-    <t>4654862100934570000</t>
-  </si>
-  <si>
     <t>Дата от</t>
   </si>
   <si>
     <t>Дата до</t>
+  </si>
+  <si>
+    <t>4654862100934575815</t>
   </si>
 </sst>
 </file>
@@ -703,21 +703,21 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5546875" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.5546875" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" customWidth="1"/>
     <col min="4" max="4" width="32" style="4" customWidth="1"/>
     <col min="5" max="5" width="22" style="12" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="27.6640625" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -731,16 +731,16 @@
         <v>6</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>82</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -765,7 +765,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -790,7 +790,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -815,7 +815,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -840,7 +840,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -865,7 +865,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -890,7 +890,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -915,7 +915,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -940,7 +940,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -953,7 +953,7 @@
       </c>
       <c r="D10" s="4" t="str">
         <f>INDEX(Должности!$A$2:$D$300,MATCH($C10,Должности!$B$2:$B$300,0),1)</f>
-        <v>4654862100934570000</v>
+        <v>4654862100934575815</v>
       </c>
       <c r="E10" s="11">
         <v>43831</v>
@@ -965,7 +965,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -990,7 +990,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E26" s="11"/>
       <c r="F26" s="12"/>
     </row>
@@ -1376,13 +1376,13 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="34.44140625" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>43</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>55</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>47</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>46</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>50</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>52</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>45</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>56</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>54</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>51</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>53</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>49</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>57</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>48</v>
       </c>
@@ -1513,16 +1513,16 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" style="6" customWidth="1"/>
     <col min="2" max="2" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>43</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>77</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>70</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>64</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>61</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>63</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>62</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>65</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>75</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>80</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>67</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>78</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>59</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>74</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>60</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>66</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>69</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>71</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>72</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>79</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>68</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>73</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>76</v>
       </c>
@@ -1714,9 +1714,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
         <v>27</v>
